--- a/database-data/Songs.xlsx
+++ b/database-data/Songs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\music-library\Bazy danych\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\music-library\music-library-desktop-application\database-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C29F84D-6971-44FE-B29F-86BFCD9B80E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514C6F04-9881-400C-8C19-689BE71A17D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>SongID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>SongTitle</t>
   </si>
   <si>
-    <t>AlbumTitle</t>
-  </si>
-  <si>
     <t>NumberInAlbum</t>
   </si>
   <si>
@@ -57,18 +54,12 @@
     <t>Cisza jak ta</t>
   </si>
   <si>
-    <t>Akustycznie</t>
-  </si>
-  <si>
     <t>Rock</t>
   </si>
   <si>
     <t xml:space="preserve">Ratujmy co się da </t>
   </si>
   <si>
-    <t>Die Mensch-Maschine</t>
-  </si>
-  <si>
     <t>The Robots</t>
   </si>
   <si>
@@ -88,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Man Machine </t>
+  </si>
+  <si>
+    <t>AlbumId</t>
   </si>
 </sst>
 </file>
@@ -408,7 +402,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -446,16 +440,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>350</v>
@@ -466,16 +460,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>350-18</f>
@@ -487,16 +481,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>372</v>
@@ -507,16 +501,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
         <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>357</v>
@@ -527,16 +521,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>361</v>
@@ -547,16 +541,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>220</v>
@@ -567,16 +561,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>472</v>
@@ -587,16 +581,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>332</v>
